--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782567</v>
+        <v>111782566</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,31 +949,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573909.350056502</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R4" t="n">
-        <v>6303235.410511858</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782565</v>
+        <v>111782567</v>
       </c>
       <c r="B5" t="n">
-        <v>100532</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,30 +1066,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>223246</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573877.2060252801</v>
+        <v>573909.350056502</v>
       </c>
       <c r="R5" t="n">
-        <v>6303225.547499124</v>
+        <v>6303235.410511858</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782566</v>
+        <v>111782565</v>
       </c>
       <c r="B6" t="n">
-        <v>103369</v>
+        <v>100532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,25 +1187,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221423</v>
+        <v>223246</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573877.0511306904</v>
+        <v>573877.2060252801</v>
       </c>
       <c r="R6" t="n">
-        <v>6303234.29156004</v>
+        <v>6303225.547499124</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782566</v>
+        <v>111782567</v>
       </c>
       <c r="B4" t="n">
-        <v>103369</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,31 +949,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221423</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573877.0511306904</v>
+        <v>573909.350056502</v>
       </c>
       <c r="R4" t="n">
-        <v>6303234.29156004</v>
+        <v>6303235.410511858</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782567</v>
+        <v>111782566</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573909.350056502</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R5" t="n">
-        <v>6303235.410511858</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782566</v>
+        <v>111782565</v>
       </c>
       <c r="B5" t="n">
-        <v>103369</v>
+        <v>100532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,25 +1066,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221423</v>
+        <v>223246</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573877.0511306904</v>
+        <v>573877.2060252801</v>
       </c>
       <c r="R5" t="n">
-        <v>6303234.29156004</v>
+        <v>6303225.547499124</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782565</v>
+        <v>111782566</v>
       </c>
       <c r="B6" t="n">
-        <v>100532</v>
+        <v>103369</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,25 +1187,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>223246</v>
+        <v>221423</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573877.2060252801</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R6" t="n">
-        <v>6303225.547499124</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782565</v>
+        <v>111782566</v>
       </c>
       <c r="B5" t="n">
-        <v>100532</v>
+        <v>103369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,25 +1066,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>223246</v>
+        <v>221423</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573877.2060252801</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R5" t="n">
-        <v>6303225.547499124</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782566</v>
+        <v>111782565</v>
       </c>
       <c r="B6" t="n">
-        <v>103369</v>
+        <v>100532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,25 +1187,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221423</v>
+        <v>223246</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573877.0511306904</v>
+        <v>573877.2060252801</v>
       </c>
       <c r="R6" t="n">
-        <v>6303234.29156004</v>
+        <v>6303225.547499124</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782567</v>
+        <v>111782566</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,31 +949,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573909.350056502</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R4" t="n">
-        <v>6303235.410511858</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782566</v>
+        <v>111782567</v>
       </c>
       <c r="B5" t="n">
-        <v>103369</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221423</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573877.0511306904</v>
+        <v>573909.350056502</v>
       </c>
       <c r="R5" t="n">
-        <v>6303234.29156004</v>
+        <v>6303235.410511858</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782566</v>
+        <v>111782565</v>
       </c>
       <c r="B4" t="n">
-        <v>103369</v>
+        <v>100532</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -945,25 +945,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221423</v>
+        <v>223246</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573877.0511306904</v>
+        <v>573877.2060252801</v>
       </c>
       <c r="R4" t="n">
-        <v>6303234.29156004</v>
+        <v>6303225.547499124</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782567</v>
+        <v>111782566</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573909.350056502</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R5" t="n">
-        <v>6303235.410511858</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782565</v>
+        <v>111782567</v>
       </c>
       <c r="B6" t="n">
-        <v>100532</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,30 +1187,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>223246</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573877.2060252801</v>
+        <v>573909.350056502</v>
       </c>
       <c r="R6" t="n">
-        <v>6303225.547499124</v>
+        <v>6303235.410511858</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782565</v>
+        <v>111782566</v>
       </c>
       <c r="B4" t="n">
-        <v>100532</v>
+        <v>103369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -945,25 +945,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223246</v>
+        <v>221423</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573877.2060252801</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R4" t="n">
-        <v>6303225.547499124</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782566</v>
+        <v>111782567</v>
       </c>
       <c r="B5" t="n">
-        <v>103369</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221423</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573877.0511306904</v>
+        <v>573909.350056502</v>
       </c>
       <c r="R5" t="n">
-        <v>6303234.29156004</v>
+        <v>6303235.410511858</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782567</v>
+        <v>111782565</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>100532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,30 +1187,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>223246</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573909.350056502</v>
+        <v>573877.2060252801</v>
       </c>
       <c r="R6" t="n">
-        <v>6303235.410511858</v>
+        <v>6303225.547499124</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782567</v>
+        <v>111782565</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>100532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,30 +1066,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>223246</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573909.350056502</v>
+        <v>573877.2060252801</v>
       </c>
       <c r="R5" t="n">
-        <v>6303235.410511858</v>
+        <v>6303225.547499124</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782565</v>
+        <v>111782567</v>
       </c>
       <c r="B6" t="n">
-        <v>100532</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,30 +1187,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>223246</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573877.2060252801</v>
+        <v>573909.350056502</v>
       </c>
       <c r="R6" t="n">
-        <v>6303225.547499124</v>
+        <v>6303235.410511858</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782566</v>
+        <v>111782565</v>
       </c>
       <c r="B4" t="n">
-        <v>103369</v>
+        <v>100532</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -945,25 +945,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221423</v>
+        <v>223246</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573877.0511306904</v>
+        <v>573877.2060252801</v>
       </c>
       <c r="R4" t="n">
-        <v>6303234.29156004</v>
+        <v>6303225.547499124</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782565</v>
+        <v>111782566</v>
       </c>
       <c r="B5" t="n">
-        <v>100532</v>
+        <v>103369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,25 +1066,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>223246</v>
+        <v>221423</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573877.2060252801</v>
+        <v>573877.0511306904</v>
       </c>
       <c r="R5" t="n">
-        <v>6303225.547499124</v>
+        <v>6303234.29156004</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782565</v>
+        <v>111782567</v>
       </c>
       <c r="B4" t="n">
-        <v>100532</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -945,30 +945,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223246</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573877.2060252801</v>
+        <v>573909</v>
       </c>
       <c r="R4" t="n">
-        <v>6303225.547499124</v>
+        <v>6303235</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1015,19 +1015,9 @@
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2021-09-30</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1054,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782566</v>
+        <v>111782565</v>
       </c>
       <c r="B5" t="n">
-        <v>103369</v>
+        <v>100532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,25 +1056,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221423</v>
+        <v>223246</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1094,7 +1084,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1103,10 +1093,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573877.0511306904</v>
+        <v>573877</v>
       </c>
       <c r="R5" t="n">
-        <v>6303234.29156004</v>
+        <v>6303226</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,19 +1126,9 @@
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2021-09-30</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1175,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782567</v>
+        <v>111782566</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,31 +1171,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1224,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573909.350056502</v>
+        <v>573877</v>
       </c>
       <c r="R6" t="n">
-        <v>6303235.410511858</v>
+        <v>6303234</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1257,19 +1237,9 @@
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2021-09-30</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -933,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782567</v>
+        <v>111782566</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>103369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,31 +949,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>221423</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573909</v>
+        <v>573877</v>
       </c>
       <c r="R4" t="n">
-        <v>6303235</v>
+        <v>6303234</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782566</v>
+        <v>111782567</v>
       </c>
       <c r="B6" t="n">
-        <v>103369</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,31 +1171,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221423</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573877</v>
+        <v>573909</v>
       </c>
       <c r="R6" t="n">
-        <v>6303234</v>
+        <v>6303235</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 45095-2021.xlsx
+++ b/artfynd/A 45095-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,6 +1264,123 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112507258</v>
+      </c>
+      <c r="B7" t="n">
+        <v>85323</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Porslinsblå spindling</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cortinarius cumatilis</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Snärjebäcken kalkbarrskog, Sm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>573889</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6303251</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ryssby</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Kalkrik blandskog utmed Snärjebäcken. Blåsippor hassel idegran.</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Aron Edman</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Aron Edman</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
